--- a/01_MP_values/soccer/MP56_Transform.xlsx
+++ b/01_MP_values/soccer/MP56_Transform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\02_projects\2018_Soccer_Mouthguard\data\baselines\MP0056 - Calibration Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\medctr\dfs\cib$\shared\02_projects\mouthpiece_data_collection\00_MATLAB_Code\01_MP_values\soccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F86303-A2B3-417F-AFB1-5B16DFD47B72}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9414D2-E6BC-4EF8-B11F-021D1B05B9AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{D5BC1F56-BEB3-4B4A-B0D8-D21E3A9D3F95}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="23445" windowHeight="14595" xr2:uid="{D5BC1F56-BEB3-4B4A-B0D8-D21E3A9D3F95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O18"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,44 +417,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61.37</v>
+        <v>47.425127192557575</v>
       </c>
       <c r="B2">
-        <v>0.97798332566006796</v>
+        <v>0.99334575871763475</v>
       </c>
       <c r="C2">
-        <v>-0.117065856921147</v>
+        <v>9.9167196384885331E-2</v>
       </c>
       <c r="D2">
-        <v>-0.172754739078821</v>
+        <v>-5.8566806288615825E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9.3000000000000007</v>
+        <v>-9.740285675559285</v>
       </c>
       <c r="B3">
-        <v>1.8837027684852801E-3</v>
+        <v>0.11267508584553425</v>
       </c>
       <c r="C3">
-        <v>-0.82284717547090203</v>
+        <v>-0.73150735677226075</v>
       </c>
       <c r="D3">
-        <v>0.56825960395178499</v>
+        <v>0.67245915267602829</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-69.61</v>
+        <v>-80.775434919996215</v>
       </c>
       <c r="B4">
-        <v>-0.20867454659050699</v>
+        <v>2.3843839191458899E-2</v>
       </c>
       <c r="C4">
-        <v>-0.55607383589131099</v>
+        <v>-0.67458346714785578</v>
       </c>
       <c r="D4">
-        <v>-0.80451029989824796</v>
+        <v>-0.73781340268620055</v>
       </c>
     </row>
   </sheetData>
